--- a/data/HetY1H Pilot TF coordinates.xlsx
+++ b/data/HetY1H Pilot TF coordinates.xlsx
@@ -1,83 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04e6ab56c4a5ee78/Documents/Fuxman Bass Lab/Heterodimer Y1H/Pilot 3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1890F6C5-B837-4B91-9E1D-B522A8513019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F5BF9A6F-5CF9-4527-BCC4-CE4645C48C69}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+  <si>
+    <t>Coordinate</t>
+  </si>
+  <si>
+    <t>TF1</t>
+  </si>
+  <si>
+    <t>TF2</t>
+  </si>
+  <si>
+    <t>1-B2</t>
+  </si>
   <si>
     <t>REL</t>
   </si>
   <si>
+    <t>1-B3</t>
+  </si>
+  <si>
     <t>RELA</t>
   </si>
   <si>
+    <t>1-B4</t>
+  </si>
+  <si>
     <t>RELB</t>
   </si>
   <si>
+    <t>1-B5</t>
+  </si>
+  <si>
     <t>NFKB1</t>
   </si>
   <si>
+    <t>1-B6</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>1-B8</t>
+  </si>
+  <si>
+    <t>1-F7</t>
+  </si>
+  <si>
+    <t>1-B9</t>
+  </si>
+  <si>
     <t>p50</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>1-B2</t>
-  </si>
-  <si>
-    <t>1-B3</t>
-  </si>
-  <si>
-    <t>1-B4</t>
-  </si>
-  <si>
-    <t>1-B5</t>
-  </si>
-  <si>
-    <t>1-B6</t>
-  </si>
-  <si>
-    <t>1-B8</t>
-  </si>
-  <si>
-    <t>1-F7</t>
-  </si>
-  <si>
-    <t>1-B9</t>
-  </si>
-  <si>
     <t>1-B10</t>
   </si>
   <si>
@@ -204,15 +192,6 @@
     <t>1-G10</t>
   </si>
   <si>
-    <t>Coordinate</t>
-  </si>
-  <si>
-    <t>TF1</t>
-  </si>
-  <si>
-    <t>TF2</t>
-  </si>
-  <si>
     <t>2-B3</t>
   </si>
   <si>
@@ -658,26 +637,33 @@
   </si>
   <si>
     <t>4-G10</t>
+  </si>
+  <si>
+    <t>4-H12</t>
+  </si>
+  <si>
+    <t>3-H12</t>
+  </si>
+  <si>
+    <t>2-H12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -690,13 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,120 +712,316 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="8">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -881,108 +1063,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -990,7 +1078,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1016,7 +1104,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1068,16 +1156,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1093,7 +1193,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1124,2225 +1224,2376 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D6F464-A022-438E-A80B-56342168DF2A}">
-  <dimension ref="A1:C195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="10.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="10.28515625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>116</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>117</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>121</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" t="s">
         <v>122</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="B109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>124</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="B110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>125</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="B111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>126</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="B112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="B113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="B114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="B116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>131</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="B117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>132</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="B118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>133</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="B119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>134</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="B120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>135</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="B121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="B122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>137</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>139</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" t="s">
         <v>140</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" t="s">
         <v>141</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" t="s">
         <v>142</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>143</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>144</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>145</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" t="s">
         <v>146</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>148</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>149</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>150</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>152</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+    <row r="139">
+      <c r="A139" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" t="s">
         <v>154</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" t="s">
         <v>155</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" t="s">
         <v>157</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+    <row r="144">
+      <c r="A144" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>158</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" t="s">
         <v>159</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>160</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148" t="s">
         <v>161</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>162</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>163</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>164</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="152">
+      <c r="A152" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>166</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>167</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>168</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="C155" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>169</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" t="s">
         <v>170</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" t="s">
         <v>171</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" t="s">
         <v>172</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>173</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" t="s">
         <v>174</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>175</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="A164" t="s">
         <v>176</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" t="s">
         <v>177</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>178</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" t="s">
         <v>179</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" t="s">
         <v>180</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" t="s">
         <v>181</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" t="s">
         <v>182</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" t="s">
         <v>183</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172" t="s">
         <v>184</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" t="s">
         <v>185</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" t="s">
         <v>186</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" t="s">
         <v>187</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" t="s">
         <v>188</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" t="s">
         <v>189</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" t="s">
         <v>190</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" t="s">
         <v>191</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180">
       <c r="A180" t="s">
         <v>192</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="2" t="s">
+      <c r="B180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" t="s">
         <v>193</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" s="2" t="s">
+      <c r="B181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" t="s">
         <v>194</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" s="2" t="s">
+      <c r="B182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" s="2" t="s">
+      <c r="B183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" t="s">
         <v>196</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" s="2" t="s">
+      <c r="B184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" t="s">
         <v>197</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" s="2" t="s">
+      <c r="B185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" t="s">
         <v>198</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="2" t="s">
+      <c r="B186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" t="s">
         <v>199</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188">
       <c r="A188" t="s">
         <v>200</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="2" t="s">
+      <c r="B188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" t="s">
         <v>201</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="2" t="s">
+      <c r="B189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" t="s">
         <v>202</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="2" t="s">
+      <c r="B190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" t="s">
         <v>203</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C191" s="2" t="s">
+      <c r="B191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" t="s">
         <v>204</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C192" s="2" t="s">
+      <c r="B192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s">
         <v>205</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" s="2" t="s">
+      <c r="B193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" t="s">
         <v>206</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" s="2" t="s">
+      <c r="B194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" t="s">
         <v>207</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>5</v>
+      <c r="B195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25">
+      <c r="A196" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25">
+      <c r="A197" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25">
+      <c r="A198" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B364:C1048576 B1:C51">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="empty">
-      <formula>NOT(ISERROR(SEARCH("empty",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C51 B196:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"empty"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:C187">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",B52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",B52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="empty">
-      <formula>NOT(ISERROR(SEARCH("empty",B52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:C187">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"empty"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B188:C195">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",B188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",B188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="empty">
-      <formula>NOT(ISERROR(SEARCH("empty",B188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B188:C195">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"empty"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" text="empty" id="{00060052-00A4-4EA6-84C5-001200D200AB}">
+            <xm:f>NOT(ISERROR(SEARCH("empty",B1)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="0" tint="-0.499984740745262"/>
+                  <bgColor theme="0" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B364:C1048576 B1:C51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" text="yes" id="{00D3006B-0037-4DE7-8755-00CC00DD0061}">
+            <xm:f>NOT(ISERROR(SEARCH("yes",B1)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="9" tint="0.59996337778862885"/>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B364:C1048576 B1:C51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" text="no" id="{00F90004-00FE-475F-999C-001F00E400AE}">
+            <xm:f>NOT(ISERROR(SEARCH("no",B1)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="5" tint="0.59996337778862885"/>
+                  <bgColor theme="5" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B364:C1048576 B1:C51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{0059007F-00FF-43AE-A882-00CD00D70008}">
+            <xm:f>"empty"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="8" tint="0.39994506668294322"/>
+                  <bgColor theme="8" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B1:C51 B196:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" text="empty" id="{0096007E-00FE-4835-820B-00AC009100D1}">
+            <xm:f>NOT(ISERROR(SEARCH("empty",B52)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="0" tint="-0.499984740745262"/>
+                  <bgColor theme="0" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B52:C187</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" text="yes" id="{00300096-002B-4081-BAEF-00BF004A00DC}">
+            <xm:f>NOT(ISERROR(SEARCH("yes",B52)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="9" tint="0.59996337778862885"/>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B52:C187</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="no" id="{00BB0067-001A-48B3-9C3A-001600B5000F}">
+            <xm:f>NOT(ISERROR(SEARCH("no",B52)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="5" tint="0.59996337778862885"/>
+                  <bgColor theme="5" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B52:C187</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{000500F8-00A4-4233-A2EB-0025003400F1}">
+            <xm:f>"empty"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="8" tint="0.39994506668294322"/>
+                  <bgColor theme="8" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B52:C187</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="empty" id="{007F0002-00FB-44A3-9829-007D00A40036}">
+            <xm:f>NOT(ISERROR(SEARCH("empty",B188)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="0" tint="-0.499984740745262"/>
+                  <bgColor theme="0" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B188:C195</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" text="yes" id="{00FB00F7-00D9-47EC-B309-004200C10045}">
+            <xm:f>NOT(ISERROR(SEARCH("yes",B188)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="9" tint="0.59996337778862885"/>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B188:C195</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="no" id="{001800FD-00D0-4427-8DA9-0069000D008E}">
+            <xm:f>NOT(ISERROR(SEARCH("no",B188)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="5" tint="0.59996337778862885"/>
+                  <bgColor theme="5" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B188:C195</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00FD003D-00B0-44C7-ADEF-00B800220004}">
+            <xm:f>"empty"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="8" tint="0.39994506668294322"/>
+                  <bgColor theme="8" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B188:C195</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>